--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.7272727272727274</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.8625730994152047</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7727272727272727</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0.9444444444444444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8421052631578948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2514619883040936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2272727272727273</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07602339181286549</v>
+        <v>0.9853801169590644</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3076923076923077</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.2160493827160494</v>
+        <v>0.9660493827160493</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.547142857142857</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491812865497076</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4957035647279548</v>
+        <v>0.7083116883116883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4771280051981807</v>
+        <v>0.9628005198180636</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
+++ b/classfiers/bottleneck/svm/nearmiss/bottleneck-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8625730994152047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9853801169590644</v>
+        <v>0.9888888888888888</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9660493827160493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9436363636363637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6631578947368421</v>
+        <v>0.7911111111111111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7083116883116883</v>
+        <v>0.836190476190476</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9628005198180636</v>
+        <v>0.9133333333333333</v>
       </c>
     </row>
   </sheetData>
